--- a/biology/Botanique/Gunnera_hamiltonii/Gunnera_hamiltonii.xlsx
+++ b/biology/Botanique/Gunnera_hamiltonii/Gunnera_hamiltonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gunnera hamiltonii est une espèce de plantes herbacées rampante de la famille Gunneraceae, avec des grappes de petites feuilles gris-brun (2 à 7 cm) formant un tapis dense. Les petites fleurs vertes sont suivies par des fruits rouges à l'automne.
 C'est une des plantes les plus rares en Nouvelle-Zélande avec Southland et l’île Stewart représentant deux des cinq présumés habitats restants. La fertilisation naturelle de ces plantes est maintenant difficile étant donné que les pieds mâles et femelles sont séparées.
